--- a/teaching/traditional_assets/database/data/hungary/hungary_beverage_soft.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_beverage_soft.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.157</v>
+        <v>-0.448</v>
       </c>
       <c r="G2">
-        <v>0.3741007194244604</v>
+        <v>-6.9</v>
       </c>
       <c r="H2">
-        <v>0.3741007194244604</v>
+        <v>-6.9</v>
       </c>
       <c r="I2">
-        <v>-0.007194244604316546</v>
+        <v>-11.7</v>
       </c>
       <c r="J2">
-        <v>-0.007194244604316546</v>
+        <v>-11.7</v>
       </c>
       <c r="K2">
-        <v>0.004</v>
+        <v>-0.239</v>
       </c>
       <c r="L2">
-        <v>0.02877697841726619</v>
+        <v>-11.95</v>
       </c>
       <c r="M2">
-        <v>0.31</v>
+        <v>0.221</v>
       </c>
       <c r="N2">
-        <v>0.03775883069427527</v>
+        <v>0.04446680080482898</v>
       </c>
       <c r="O2">
-        <v>77.5</v>
+        <v>-0.9246861924686193</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,40 +627,40 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.31</v>
+        <v>0.221</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0.041</v>
+        <v>0.02</v>
       </c>
       <c r="V2">
-        <v>0.004993909866017052</v>
+        <v>0.004024144869215292</v>
       </c>
       <c r="W2">
-        <v>0.007575757575757576</v>
+        <v>-0.5431818181818182</v>
       </c>
       <c r="X2">
-        <v>0.07148163258238867</v>
+        <v>0.05389978651585595</v>
       </c>
       <c r="Y2">
-        <v>-0.06390587500663109</v>
+        <v>-0.5970816046976741</v>
       </c>
       <c r="Z2">
-        <v>0.8527607361963189</v>
+        <v>0.05012531328320802</v>
       </c>
       <c r="AA2">
-        <v>-0.006134969325153374</v>
+        <v>-0.5864661654135338</v>
       </c>
       <c r="AB2">
-        <v>0.07148163258238867</v>
+        <v>0.05389978651585595</v>
       </c>
       <c r="AC2">
-        <v>-0.07761660190754205</v>
+        <v>-0.6403659519293897</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.041</v>
+        <v>-0.02</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,22 +681,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.005018974170645122</v>
+        <v>-0.00404040404040404</v>
       </c>
       <c r="AK2">
-        <v>-0.1181556195965418</v>
+        <v>-0.03610108303249098</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AO2">
+        <v>-29.25</v>
       </c>
       <c r="AP2">
-        <v>-6.833333333333333</v>
+        <v>0.09009009009009009</v>
+      </c>
+      <c r="AQ2">
+        <v>-29.25</v>
       </c>
     </row>
     <row r="3">
@@ -716,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.157</v>
+        <v>-0.448</v>
       </c>
       <c r="G3">
-        <v>0.3741007194244604</v>
+        <v>-6.9</v>
       </c>
       <c r="H3">
-        <v>0.3741007194244604</v>
+        <v>-6.9</v>
       </c>
       <c r="I3">
-        <v>-0.007194244604316546</v>
+        <v>-11.7</v>
       </c>
       <c r="J3">
-        <v>-0.007194244604316546</v>
+        <v>-11.7</v>
       </c>
       <c r="K3">
-        <v>0.004</v>
+        <v>-0.239</v>
       </c>
       <c r="L3">
-        <v>0.02877697841726619</v>
+        <v>-11.95</v>
       </c>
       <c r="M3">
-        <v>0.31</v>
+        <v>0.221</v>
       </c>
       <c r="N3">
-        <v>0.03775883069427527</v>
+        <v>0.04446680080482898</v>
       </c>
       <c r="O3">
-        <v>77.5</v>
+        <v>-0.9246861924686193</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,40 +758,40 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.31</v>
+        <v>0.221</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>0.041</v>
+        <v>0.02</v>
       </c>
       <c r="V3">
-        <v>0.004993909866017052</v>
+        <v>0.004024144869215292</v>
       </c>
       <c r="W3">
-        <v>0.007575757575757576</v>
+        <v>-0.5431818181818182</v>
       </c>
       <c r="X3">
-        <v>0.07148163258238867</v>
+        <v>0.05389978651585595</v>
       </c>
       <c r="Y3">
-        <v>-0.06390587500663109</v>
+        <v>-0.5970816046976741</v>
       </c>
       <c r="Z3">
-        <v>0.8527607361963189</v>
+        <v>0.05012531328320802</v>
       </c>
       <c r="AA3">
-        <v>-0.006134969325153374</v>
+        <v>-0.5864661654135338</v>
       </c>
       <c r="AB3">
-        <v>0.07148163258238867</v>
+        <v>0.05389978651585595</v>
       </c>
       <c r="AC3">
-        <v>-0.07761660190754205</v>
+        <v>-0.6403659519293897</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.041</v>
+        <v>-0.02</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -806,22 +812,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.005018974170645122</v>
+        <v>-0.00404040404040404</v>
       </c>
       <c r="AK3">
-        <v>-0.1181556195965418</v>
+        <v>-0.03610108303249098</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AO3">
+        <v>-29.25</v>
       </c>
       <c r="AP3">
-        <v>-6.833333333333333</v>
+        <v>0.09009009009009009</v>
+      </c>
+      <c r="AQ3">
+        <v>-29.25</v>
       </c>
     </row>
   </sheetData>
